--- a/Generator/input/datamodel2tablemodel/LRMS_共通_テーブル←データモデルマッピング.xlsx
+++ b/Generator/input/datamodel2tablemodel/LRMS_共通_テーブル←データモデルマッピング.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="234">
   <si>
     <t>age</t>
   </si>
@@ -401,10 +401,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PlanFamily</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>行番号</t>
   </si>
   <si>
@@ -1069,11 +1065,205 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>T_LRMS_PLAN_KIHON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LtPlan</t>
+  </si>
+  <si>
+    <t>LRMSプラン基本</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取扱者ID</t>
+  </si>
+  <si>
+    <t>プラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>取扱者ID</t>
+    <rPh sb="0" eb="2">
+      <t>トリアツカイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>toriatsukaishaId</t>
+  </si>
+  <si>
+    <t>顧客ID</t>
+  </si>
+  <si>
+    <t>顧客ID</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kokyakuId</t>
+  </si>
+  <si>
+    <t>分析種別コード</t>
+  </si>
+  <si>
+    <t>分析種別</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bunsekiShubetsu</t>
+  </si>
+  <si>
+    <t>03(介護保障分析)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析一覧コメント</t>
+  </si>
+  <si>
+    <t>コメント</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>分析実施日</t>
+  </si>
+  <si>
+    <t>プラン作成日時</t>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>planCreated</t>
+  </si>
+  <si>
+    <t>分析最終更新日</t>
+  </si>
+  <si>
+    <t>プラン更新日時</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>planUpdated</t>
+  </si>
+  <si>
+    <t>設計プランNO</t>
+  </si>
+  <si>
+    <t>SEKKEI_PLAN_NO</t>
+  </si>
+  <si>
+    <t>設計プランNo</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sekkeiPlanNo</t>
+  </si>
+  <si>
+    <t>被保険者ＩＤ</t>
+  </si>
+  <si>
+    <t>INSURED_ID</t>
+  </si>
+  <si>
+    <t>被保険者ID</t>
+    <rPh sb="0" eb="4">
+      <t>ヒホケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>insuredId</t>
+  </si>
+  <si>
+    <t>計算基準日</t>
+  </si>
+  <si>
+    <t>KEISAN_KIJUN_DATE</t>
+  </si>
+  <si>
+    <t>証券分析プランID</t>
+  </si>
+  <si>
+    <t>SHOKEN_BUNSEKI_PLAN_ID</t>
+  </si>
+  <si>
+    <t>証券分析プランNo</t>
+  </si>
+  <si>
+    <t>shokenPlanNo</t>
+  </si>
+  <si>
+    <t>レビューにて</t>
+  </si>
+  <si>
+    <t>LRMSの各機能の基本テーブル内の項目で、LRMSの共通で使用する項目を「LRMSプラン基本」テーブルへ移設
+「LRMSプラン基本」マッピングを追加</t>
+    <rPh sb="5" eb="6">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>イセツ</t>
+    </rPh>
+    <rPh sb="72" eb="74">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="24"/>
+  </si>
+  <si>
+    <t>T_LRMS_PLAN_FAMILY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>LtPlan</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>T_KRNS_PLAN_FAMILY</t>
+    <t>PlanFamily</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1081,7 +1271,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
@@ -1092,8 +1282,9 @@
     <numFmt numFmtId="181" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="182" formatCode="&quot;¥&quot;#,##0.00;[Red]&quot;¥&quot;\-&quot;¥&quot;#,##0.00"/>
     <numFmt numFmtId="183" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-&quot;¥&quot;#,##0"/>
+    <numFmt numFmtId="184" formatCode="yyyy/mm/dd\ hh:mm"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1338,6 +1529,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1389,7 +1594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1990,6 +2195,172 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -2086,7 +2457,7 @@
     <xf numFmtId="183" fontId="35" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2344,6 +2715,126 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="38" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="38" fillId="0" borderId="0" xfId="38" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="38" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2853,16 +3344,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.25" thickBot="1">
       <c r="A1" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="C1" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="D1" s="57" t="s">
         <v>171</v>
-      </c>
-      <c r="D1" s="57" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" thickTop="1">
@@ -2871,13 +3362,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="61">
         <v>41604</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2886,22 +3377,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C3" s="63">
         <v>41605</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F3" s="64">
         <v>41604.416666666664</v>
       </c>
       <c r="G3" s="59" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="59" t="s">
         <v>177</v>
-      </c>
-      <c r="I3" s="59" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2910,19 +3401,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C4" s="63">
         <v>41606</v>
       </c>
       <c r="D4" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F4" s="77">
         <v>41604.625</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2931,19 +3422,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="75">
         <v>41606</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F5" s="77">
         <v>41604.625</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2952,19 +3443,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="62" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C6" s="63">
         <v>41612</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F6" s="64">
         <v>41612.618055555555</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2973,19 +3464,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C7" s="75">
         <v>41612</v>
       </c>
       <c r="D7" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F7" s="77">
         <v>41612.618055555555</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2994,29 +3485,42 @@
         <v>7</v>
       </c>
       <c r="B8" s="74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="75">
         <v>41612</v>
       </c>
       <c r="D8" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F8" s="77">
         <v>41612.625</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="40.5">
       <c r="A9" s="62">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="62"/>
+      <c r="B9" s="123" t="s">
+        <v>230</v>
+      </c>
+      <c r="C9" s="75">
+        <v>41618</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="65"/>
+      <c r="F9" s="124">
+        <v>41618.458333333336</v>
+      </c>
+      <c r="G9" s="125" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="62">
@@ -3372,12 +3876,12 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="A2" sqref="A2:XFD3"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3400,11 +3904,11 @@
   <sheetData>
     <row r="1" spans="1:13" ht="17.25">
       <c r="A1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="126" t="s">
         <v>54</v>
       </c>
       <c r="B2" s="18" t="s">
@@ -3425,7 +3929,7 @@
       <c r="M2" s="16"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A3" s="87"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="10" t="s">
         <v>19</v>
       </c>
@@ -3463,526 +3967,898 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" thickTop="1">
-      <c r="A4" s="89" t="s">
+    <row r="4" spans="1:13" s="70" customFormat="1" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A4" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="89" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="89">
+        <v>36</v>
+      </c>
+      <c r="G4" s="89"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="71" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="93"/>
+      <c r="M4" s="94"/>
+    </row>
+    <row r="5" spans="1:13" s="70" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A5" s="129"/>
+      <c r="B5" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C5" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="97">
+        <v>4</v>
+      </c>
+      <c r="G5" s="97"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="99" t="s">
+        <v>196</v>
+      </c>
+      <c r="J5" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="L5" s="102"/>
+      <c r="M5" s="103"/>
+    </row>
+    <row r="6" spans="1:13" s="70" customFormat="1">
+      <c r="A6" s="129"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="26" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="97">
+        <v>30</v>
+      </c>
+      <c r="G6" s="97"/>
+      <c r="H6" s="104"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="105" t="s">
+        <v>200</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="L6" s="107"/>
+      <c r="M6" s="108"/>
+    </row>
+    <row r="7" spans="1:13" s="70" customFormat="1">
+      <c r="A7" s="129"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="97">
+        <v>2</v>
+      </c>
+      <c r="G7" s="97"/>
+      <c r="H7" s="104"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="105" t="s">
+        <v>203</v>
+      </c>
+      <c r="K7" s="106" t="s">
+        <v>204</v>
+      </c>
+      <c r="L7" s="107"/>
+      <c r="M7" s="108" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="70" customFormat="1">
+      <c r="A8" s="129"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="97">
+        <v>30</v>
+      </c>
+      <c r="G8" s="97"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="105" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" s="106" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="106"/>
+      <c r="M8" s="108"/>
+    </row>
+    <row r="9" spans="1:13" s="70" customFormat="1">
+      <c r="A9" s="129"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="97"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="105" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9" s="106" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="106"/>
+      <c r="M9" s="108"/>
+    </row>
+    <row r="10" spans="1:13" s="70" customFormat="1">
+      <c r="A10" s="129"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="97"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="105" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="106" t="s">
+        <v>214</v>
+      </c>
+      <c r="L10" s="106"/>
+      <c r="M10" s="108"/>
+    </row>
+    <row r="11" spans="1:13" s="70" customFormat="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="97">
+        <v>20</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="105" t="s">
+        <v>217</v>
+      </c>
+      <c r="K11" s="106" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="110"/>
+      <c r="M11" s="111"/>
+    </row>
+    <row r="12" spans="1:13" s="70" customFormat="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="97">
+        <v>17</v>
+      </c>
+      <c r="G12" s="97"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="105" t="s">
+        <v>221</v>
+      </c>
+      <c r="K12" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="L12" s="110"/>
+      <c r="M12" s="111"/>
+    </row>
+    <row r="13" spans="1:13" s="70" customFormat="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="112" t="s">
+        <v>223</v>
+      </c>
+      <c r="D13" s="113" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="113" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="97"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="114" t="s">
+        <v>210</v>
+      </c>
+      <c r="K13" s="110" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="110"/>
+      <c r="M13" s="111"/>
+    </row>
+    <row r="14" spans="1:13" s="70" customFormat="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="113" t="s">
+        <v>226</v>
+      </c>
+      <c r="E14" s="113" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="113">
+        <v>36</v>
+      </c>
+      <c r="G14" s="97"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="K14" s="117" t="s">
+        <v>228</v>
+      </c>
+      <c r="L14" s="117"/>
+      <c r="M14" s="118"/>
+    </row>
+    <row r="15" spans="1:13" s="70" customFormat="1">
+      <c r="A15" s="43"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="97"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" s="32"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:13" s="70" customFormat="1">
+      <c r="A16" s="43"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="97"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="38"/>
+    </row>
+    <row r="17" spans="1:13" s="70" customFormat="1" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A17" s="43"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="119"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="122"/>
+    </row>
+    <row r="18" spans="1:13" ht="27.75" customHeight="1" thickTop="1">
+      <c r="A18" s="43"/>
+      <c r="B18" s="73" t="s">
+        <v>231</v>
+      </c>
+      <c r="C18" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D18" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E18" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F18" s="39">
         <v>36</v>
       </c>
-      <c r="G4" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="J4" s="84" t="s">
+      <c r="G18" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="40"/>
+      <c r="I18" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K18" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="67"/>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="89"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="52" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E5" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="41">
-        <v>2</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="69"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="89"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="12">
-        <v>32</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="72" t="s">
-        <v>81</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="L6" s="9"/>
-      <c r="M6" s="55"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="89"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="12">
-        <v>32</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="24"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="55"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="89"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="55"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="89"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="12">
-        <v>3</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="55"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="89"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="12">
-        <v>1</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" s="9"/>
-      <c r="M10" s="55"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="43"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="55"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="43"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="55"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="43"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="12">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="24"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="55"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="43"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="12">
-        <v>11</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="83" t="s">
-        <v>192</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="55"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="43"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="12">
-        <v>3</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="55"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="43"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="81">
-        <v>3</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="55"/>
-    </row>
-    <row r="17" spans="1:13" s="70" customFormat="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="81">
-        <v>3</v>
-      </c>
-      <c r="G17" s="12"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="55"/>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="43"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="79" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="80" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="80" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="80">
-        <v>8</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="30"/>
-      <c r="M18" s="55"/>
+      <c r="L18" s="68"/>
+      <c r="M18" s="67"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="43"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="24"/>
-      <c r="I19" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="J19" s="32"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="34"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="41">
+        <v>2</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="42"/>
+      <c r="I19" s="71" t="s">
+        <v>233</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="69"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="43"/>
-      <c r="B20" s="82"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="12">
+        <v>32</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="9"/>
+      <c r="M20" s="55"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="43"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="12">
+        <v>32</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="L21" s="9"/>
+      <c r="M21" s="55"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="43"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="24"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="L22" s="9"/>
+      <c r="M22" s="55"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="43"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="12">
+        <v>3</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="55"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="43"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="12">
+        <v>1</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="24"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L24" s="9"/>
+      <c r="M24" s="55"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="43"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="12">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="9"/>
+      <c r="M25" s="55"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="43"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="12">
+        <v>1</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="L26" s="9"/>
+      <c r="M26" s="55"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="43"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="12">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="L27" s="9"/>
+      <c r="M27" s="55"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="43"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="12">
+        <v>11</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="83" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L28" s="9"/>
+      <c r="M28" s="55"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="43"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="12">
+        <v>3</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" s="24"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L29" s="9"/>
+      <c r="M29" s="55"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="43"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="81">
+        <v>3</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30" s="9"/>
+      <c r="M30" s="55"/>
+    </row>
+    <row r="31" spans="1:13" s="70" customFormat="1">
+      <c r="A31" s="43"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="81">
+        <v>3</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" s="9"/>
+      <c r="M31" s="55"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="43"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="80">
+        <v>8</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H32" s="24"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="55"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="43"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="24"/>
+      <c r="I33" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" s="32"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="34"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="43"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="E34" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F34" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="38"/>
-    </row>
-    <row r="21" spans="1:13" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A21" s="44"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="56"/>
+      <c r="G34" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="36"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="38"/>
+    </row>
+    <row r="35" spans="1:13" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A35" s="44"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="45"/>
+      <c r="J35" s="46"/>
+      <c r="K35" s="47"/>
+      <c r="L35" s="47"/>
+      <c r="M35" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="A4:A10"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4025,7 +4901,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -4042,7 +4918,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
@@ -4059,10 +4935,10 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
         <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>136</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -4076,10 +4952,10 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>52</v>
@@ -4093,10 +4969,10 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C6" t="s">
         <v>52</v>
@@ -4229,10 +5105,10 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -4263,7 +5139,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
@@ -4297,10 +5173,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -4314,10 +5190,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C19" t="s">
         <v>52</v>
@@ -4331,10 +5207,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" t="s">
         <v>103</v>
-      </c>
-      <c r="B20" t="s">
-        <v>104</v>
       </c>
       <c r="C20" t="s">
         <v>52</v>
@@ -4365,10 +5241,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
@@ -4382,7 +5258,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -4399,7 +5275,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -4433,7 +5309,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B26" t="s">
         <v>47</v>
@@ -4450,10 +5326,10 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
         <v>146</v>
-      </c>
-      <c r="B27" t="s">
-        <v>147</v>
       </c>
       <c r="C27" t="s">
         <v>25</v>
@@ -4467,10 +5343,10 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
         <v>95</v>
-      </c>
-      <c r="B28" t="s">
-        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -4484,10 +5360,10 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
         <v>97</v>
-      </c>
-      <c r="B29" t="s">
-        <v>98</v>
       </c>
       <c r="C29" t="s">
         <v>25</v>
@@ -4501,10 +5377,10 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -4569,10 +5445,10 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
         <v>149</v>
-      </c>
-      <c r="B34" t="s">
-        <v>150</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -4586,10 +5462,10 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
         <v>52</v>
@@ -4603,10 +5479,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" t="s">
         <v>103</v>
-      </c>
-      <c r="B36" t="s">
-        <v>104</v>
       </c>
       <c r="C36" t="s">
         <v>52</v>
@@ -4637,10 +5513,10 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -4654,10 +5530,10 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
       </c>
       <c r="C39" t="s">
         <v>26</v>
@@ -4671,10 +5547,10 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" t="s">
         <v>151</v>
-      </c>
-      <c r="B40" t="s">
-        <v>152</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
@@ -4688,10 +5564,10 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s">
         <v>85</v>
-      </c>
-      <c r="B41" t="s">
-        <v>86</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -4705,10 +5581,10 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s">
         <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
       </c>
       <c r="C42" t="s">
         <v>26</v>
@@ -4722,10 +5598,10 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s">
         <v>89</v>
-      </c>
-      <c r="B43" t="s">
-        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
@@ -4739,10 +5615,10 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s">
         <v>91</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
       </c>
       <c r="C44" t="s">
         <v>26</v>
@@ -4790,10 +5666,10 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C47" t="s">
         <v>52</v>
@@ -4807,10 +5683,10 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" t="s">
         <v>103</v>
-      </c>
-      <c r="B48" t="s">
-        <v>104</v>
       </c>
       <c r="C48" t="s">
         <v>52</v>
@@ -4844,7 +5720,7 @@
         <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
         <v>26</v>
@@ -4858,10 +5734,10 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
         <v>153</v>
-      </c>
-      <c r="B51" t="s">
-        <v>154</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
@@ -4872,10 +5748,10 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
         <v>155</v>
-      </c>
-      <c r="B52" t="s">
-        <v>156</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
@@ -4909,7 +5785,7 @@
         <v>2</v>
       </c>
       <c r="B54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C54" t="s">
         <v>26</v>
@@ -4923,10 +5799,10 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
+        <v>156</v>
+      </c>
+      <c r="B55" t="s">
         <v>157</v>
-      </c>
-      <c r="B55" t="s">
-        <v>158</v>
       </c>
       <c r="C55" t="s">
         <v>26</v>
@@ -4940,7 +5816,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s">
         <v>45</v>
@@ -4957,10 +5833,10 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B57" t="s">
         <v>160</v>
-      </c>
-      <c r="B57" t="s">
-        <v>161</v>
       </c>
       <c r="C57" t="s">
         <v>26</v>
@@ -4974,10 +5850,10 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
+        <v>161</v>
+      </c>
+      <c r="B58" t="s">
         <v>162</v>
-      </c>
-      <c r="B58" t="s">
-        <v>163</v>
       </c>
       <c r="C58" t="s">
         <v>26</v>
@@ -4991,10 +5867,10 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" t="s">
         <v>164</v>
-      </c>
-      <c r="B59" t="s">
-        <v>165</v>
       </c>
       <c r="C59" t="s">
         <v>26</v>
@@ -5008,10 +5884,10 @@
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
         <v>121</v>
-      </c>
-      <c r="B60" t="s">
-        <v>122</v>
       </c>
       <c r="C60" t="s">
         <v>25</v>
@@ -5042,10 +5918,10 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
         <v>52</v>
@@ -5059,10 +5935,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" t="s">
         <v>103</v>
-      </c>
-      <c r="B63" t="s">
-        <v>104</v>
       </c>
       <c r="C63" t="s">
         <v>52</v>
@@ -5107,10 +5983,10 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
@@ -5124,10 +6000,10 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" t="s">
         <v>52</v>
@@ -5141,10 +6017,10 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" t="s">
         <v>103</v>
-      </c>
-      <c r="B68" t="s">
-        <v>104</v>
       </c>
       <c r="C68" t="s">
         <v>52</v>
